--- a/data/pca/factorExposure/factorExposure_2012-03-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01724338654229264</v>
+        <v>0.01670166518454466</v>
       </c>
       <c r="C2">
-        <v>0.03582999163454575</v>
+        <v>-0.02910707832368329</v>
       </c>
       <c r="D2">
-        <v>0.01183153859918853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0006459899880910381</v>
+      </c>
+      <c r="E2">
+        <v>0.009561123431189873</v>
+      </c>
+      <c r="F2">
+        <v>-0.009553780686636665</v>
+      </c>
+      <c r="G2">
+        <v>0.007345109482741357</v>
+      </c>
+      <c r="H2">
+        <v>-0.0568086060326488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07453324445684203</v>
+        <v>0.08820548231205359</v>
       </c>
       <c r="C4">
-        <v>0.05347734913563489</v>
+        <v>-0.03886592806845944</v>
       </c>
       <c r="D4">
-        <v>-0.0785781304990794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06472821509203566</v>
+      </c>
+      <c r="E4">
+        <v>0.01615010384080819</v>
+      </c>
+      <c r="F4">
+        <v>-0.03012740164462514</v>
+      </c>
+      <c r="G4">
+        <v>0.007561503411909034</v>
+      </c>
+      <c r="H4">
+        <v>0.03918642768712602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1089325248619917</v>
+        <v>0.1199633139308435</v>
       </c>
       <c r="C6">
-        <v>0.05776436104630973</v>
+        <v>-0.0358855069982757</v>
       </c>
       <c r="D6">
-        <v>0.008782576345745741</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.00883909045575848</v>
+      </c>
+      <c r="E6">
+        <v>-0.006172693307597913</v>
+      </c>
+      <c r="F6">
+        <v>-0.05755446003890626</v>
+      </c>
+      <c r="G6">
+        <v>0.02218454617548463</v>
+      </c>
+      <c r="H6">
+        <v>-0.105014926222533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04884001115853935</v>
+        <v>0.06410987911719733</v>
       </c>
       <c r="C7">
-        <v>0.02745303186110442</v>
+        <v>-0.02018942458757206</v>
       </c>
       <c r="D7">
-        <v>-0.04661228534679494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04569554845619578</v>
+      </c>
+      <c r="E7">
+        <v>0.03883855477759033</v>
+      </c>
+      <c r="F7">
+        <v>-0.03187142021412737</v>
+      </c>
+      <c r="G7">
+        <v>-0.03880511665654111</v>
+      </c>
+      <c r="H7">
+        <v>0.0137854683990798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03718462512188212</v>
+        <v>0.04056615897727082</v>
       </c>
       <c r="C8">
-        <v>0.01153208815800424</v>
+        <v>-0.00738515821155613</v>
       </c>
       <c r="D8">
-        <v>-0.04771900399330851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02014561878414891</v>
+      </c>
+      <c r="E8">
+        <v>0.03592717188753814</v>
+      </c>
+      <c r="F8">
+        <v>-0.04839321201640767</v>
+      </c>
+      <c r="G8">
+        <v>0.05029836020600476</v>
+      </c>
+      <c r="H8">
+        <v>-0.006761567601409756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06721955837907208</v>
+        <v>0.07937287857884706</v>
       </c>
       <c r="C9">
-        <v>0.04277196282472634</v>
+        <v>-0.02889906692446518</v>
       </c>
       <c r="D9">
-        <v>-0.07304518888265021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06330949652677961</v>
+      </c>
+      <c r="E9">
+        <v>0.03931696115228708</v>
+      </c>
+      <c r="F9">
+        <v>-0.03036891714207909</v>
+      </c>
+      <c r="G9">
+        <v>0.007789931430715083</v>
+      </c>
+      <c r="H9">
+        <v>0.04940493567995029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02830868571143193</v>
+        <v>0.03415643481999209</v>
       </c>
       <c r="C10">
-        <v>0.03331906782686167</v>
+        <v>-0.04115253859395616</v>
       </c>
       <c r="D10">
-        <v>0.178939571122104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1709911996622256</v>
+      </c>
+      <c r="E10">
+        <v>0.04935935526632162</v>
+      </c>
+      <c r="F10">
+        <v>-0.04336888755759083</v>
+      </c>
+      <c r="G10">
+        <v>-0.0417832828054992</v>
+      </c>
+      <c r="H10">
+        <v>-0.03474078779182217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07014349894816505</v>
+        <v>0.07647813441921623</v>
       </c>
       <c r="C11">
-        <v>0.04752020779579276</v>
+        <v>-0.02840533010476383</v>
       </c>
       <c r="D11">
-        <v>-0.05574598539529129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06233005343638728</v>
+      </c>
+      <c r="E11">
+        <v>-0.0005190189786589574</v>
+      </c>
+      <c r="F11">
+        <v>-0.02641414258829336</v>
+      </c>
+      <c r="G11">
+        <v>-0.003491728338114521</v>
+      </c>
+      <c r="H11">
+        <v>0.09264523773662241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05772270293794853</v>
+        <v>0.0674382796709215</v>
       </c>
       <c r="C12">
-        <v>0.05183235930623255</v>
+        <v>-0.03700910541540836</v>
       </c>
       <c r="D12">
-        <v>-0.04587000868426545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04776263323401805</v>
+      </c>
+      <c r="E12">
+        <v>0.01482923218471019</v>
+      </c>
+      <c r="F12">
+        <v>-0.01931689470279309</v>
+      </c>
+      <c r="G12">
+        <v>0.000909082065593015</v>
+      </c>
+      <c r="H12">
+        <v>0.04958483382586524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05988783423293195</v>
+        <v>0.06524144378583692</v>
       </c>
       <c r="C13">
-        <v>0.04013452090574408</v>
+        <v>-0.02538051928404425</v>
       </c>
       <c r="D13">
-        <v>-0.06371552285691569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04194883283590163</v>
+      </c>
+      <c r="E13">
+        <v>0.01515431541649314</v>
+      </c>
+      <c r="F13">
+        <v>0.0001349672356580856</v>
+      </c>
+      <c r="G13">
+        <v>-0.008451923857539512</v>
+      </c>
+      <c r="H13">
+        <v>0.0408733684641131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0327602899137884</v>
+        <v>0.0410908639788431</v>
       </c>
       <c r="C14">
-        <v>0.03198430937273336</v>
+        <v>-0.02822461025009226</v>
       </c>
       <c r="D14">
-        <v>0.0006994919725962393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.005214714841250734</v>
+      </c>
+      <c r="E14">
+        <v>0.03196018992662029</v>
+      </c>
+      <c r="F14">
+        <v>-0.009978525613626159</v>
+      </c>
+      <c r="G14">
+        <v>0.01123154320373978</v>
+      </c>
+      <c r="H14">
+        <v>0.05443062804677255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03877527461017077</v>
+        <v>0.0395016249470839</v>
       </c>
       <c r="C15">
-        <v>0.01032116476938022</v>
+        <v>-0.002954876430821047</v>
       </c>
       <c r="D15">
-        <v>-0.0172090093724831</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003231122079240915</v>
+      </c>
+      <c r="E15">
+        <v>0.04127354541818123</v>
+      </c>
+      <c r="F15">
+        <v>0.007053010949487184</v>
+      </c>
+      <c r="G15">
+        <v>0.02826004535630408</v>
+      </c>
+      <c r="H15">
+        <v>0.03477862252500784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06085509511332461</v>
+        <v>0.07052964008116838</v>
       </c>
       <c r="C16">
-        <v>0.04342010431973139</v>
+        <v>-0.02902695445141245</v>
       </c>
       <c r="D16">
-        <v>-0.04575557254809979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06165611575679397</v>
+      </c>
+      <c r="E16">
+        <v>0.008181193918798811</v>
+      </c>
+      <c r="F16">
+        <v>-0.0237380994189022</v>
+      </c>
+      <c r="G16">
+        <v>-0.003630897432060893</v>
+      </c>
+      <c r="H16">
+        <v>0.05638510614245611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06419432183279287</v>
+        <v>0.06351843610777222</v>
       </c>
       <c r="C20">
-        <v>0.03154454786819364</v>
+        <v>-0.01333384172032174</v>
       </c>
       <c r="D20">
-        <v>-0.04810344376856246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03933771764132694</v>
+      </c>
+      <c r="E20">
+        <v>0.0347995929580722</v>
+      </c>
+      <c r="F20">
+        <v>-0.01600688066509166</v>
+      </c>
+      <c r="G20">
+        <v>0.01145554879214537</v>
+      </c>
+      <c r="H20">
+        <v>0.04467050753894171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02356392470597285</v>
+        <v>0.02479912267036208</v>
       </c>
       <c r="C21">
-        <v>-0.002354761925106387</v>
+        <v>0.00937527015634268</v>
       </c>
       <c r="D21">
-        <v>-0.0262191571294944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02804857693823627</v>
+      </c>
+      <c r="E21">
+        <v>0.04015794496914329</v>
+      </c>
+      <c r="F21">
+        <v>0.01539744405528516</v>
+      </c>
+      <c r="G21">
+        <v>0.007486522015565359</v>
+      </c>
+      <c r="H21">
+        <v>-0.04845538809889016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0770680987321125</v>
+        <v>0.07227851690144821</v>
       </c>
       <c r="C22">
-        <v>0.06051099727622675</v>
+        <v>-0.03965147280467772</v>
       </c>
       <c r="D22">
-        <v>-0.1000983063930188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06298998272886158</v>
+      </c>
+      <c r="E22">
+        <v>0.5621023605919343</v>
+      </c>
+      <c r="F22">
+        <v>0.2515867273351527</v>
+      </c>
+      <c r="G22">
+        <v>-0.05964015391307757</v>
+      </c>
+      <c r="H22">
+        <v>-0.1595189513358914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07804295839337905</v>
+        <v>0.07291432446551745</v>
       </c>
       <c r="C23">
-        <v>0.05942754082722848</v>
+        <v>-0.03835430562663867</v>
       </c>
       <c r="D23">
-        <v>-0.1016851820755334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06387329880507199</v>
+      </c>
+      <c r="E23">
+        <v>0.5615757315675909</v>
+      </c>
+      <c r="F23">
+        <v>0.2501753245654011</v>
+      </c>
+      <c r="G23">
+        <v>-0.0579604287229647</v>
+      </c>
+      <c r="H23">
+        <v>-0.1545932687769798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07130253144873334</v>
+        <v>0.08030360399437823</v>
       </c>
       <c r="C24">
-        <v>0.05207729149613689</v>
+        <v>-0.0346931143490074</v>
       </c>
       <c r="D24">
-        <v>-0.05779883628786357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05849475344228592</v>
+      </c>
+      <c r="E24">
+        <v>0.01809563277301558</v>
+      </c>
+      <c r="F24">
+        <v>-0.0337905930735918</v>
+      </c>
+      <c r="G24">
+        <v>0.006796926642224426</v>
+      </c>
+      <c r="H24">
+        <v>0.06407254956296705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07069912715615154</v>
+        <v>0.07770159500688348</v>
       </c>
       <c r="C25">
-        <v>0.05751209854657067</v>
+        <v>-0.03944182978940545</v>
       </c>
       <c r="D25">
-        <v>-0.06593902461040846</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05117038287864828</v>
+      </c>
+      <c r="E25">
+        <v>0.02111744378980812</v>
+      </c>
+      <c r="F25">
+        <v>-0.02602994747459198</v>
+      </c>
+      <c r="G25">
+        <v>0.01872188222533371</v>
+      </c>
+      <c r="H25">
+        <v>0.062673978045381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04457446588545186</v>
+        <v>0.0476088881226683</v>
       </c>
       <c r="C26">
-        <v>0.0106244119805023</v>
+        <v>-0.002772533846717609</v>
       </c>
       <c r="D26">
-        <v>-0.01310952304481761</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01781618717568864</v>
+      </c>
+      <c r="E26">
+        <v>0.05283327031623751</v>
+      </c>
+      <c r="F26">
+        <v>-0.01806539491689532</v>
+      </c>
+      <c r="G26">
+        <v>-0.007803992171538653</v>
+      </c>
+      <c r="H26">
+        <v>0.05835657559614901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05175486711165984</v>
+        <v>0.06136725622697989</v>
       </c>
       <c r="C28">
-        <v>0.07497370712648964</v>
+        <v>-0.08363066181519606</v>
       </c>
       <c r="D28">
-        <v>0.3164712250271133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3081109495863832</v>
+      </c>
+      <c r="E28">
+        <v>0.02529750808922878</v>
+      </c>
+      <c r="F28">
+        <v>-0.05601188180824947</v>
+      </c>
+      <c r="G28">
+        <v>0.02940033483924927</v>
+      </c>
+      <c r="H28">
+        <v>-0.04381474212295384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04004712005779217</v>
+        <v>0.04783091899622555</v>
       </c>
       <c r="C29">
-        <v>0.03090007920931179</v>
+        <v>-0.02549797941288591</v>
       </c>
       <c r="D29">
-        <v>0.00147611035630596</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.005425784573915589</v>
+      </c>
+      <c r="E29">
+        <v>0.05728685679979435</v>
+      </c>
+      <c r="F29">
+        <v>0.003552330915667896</v>
+      </c>
+      <c r="G29">
+        <v>-0.00475374152347736</v>
+      </c>
+      <c r="H29">
+        <v>0.07962616917389928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1278413327423251</v>
+        <v>0.1327751276180871</v>
       </c>
       <c r="C30">
-        <v>0.09591870182745971</v>
+        <v>-0.0652077767550544</v>
       </c>
       <c r="D30">
-        <v>-0.1123597943091762</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.06819496441471515</v>
+      </c>
+      <c r="E30">
+        <v>0.08430989383342571</v>
+      </c>
+      <c r="F30">
+        <v>0.02349604862049199</v>
+      </c>
+      <c r="G30">
+        <v>0.07151144767563068</v>
+      </c>
+      <c r="H30">
+        <v>-0.04895803327459103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04236494977790665</v>
+        <v>0.04891332623155668</v>
       </c>
       <c r="C31">
-        <v>0.02222334157668728</v>
+        <v>-0.01460242010438541</v>
       </c>
       <c r="D31">
-        <v>-0.02512594337636917</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02455995463798384</v>
+      </c>
+      <c r="E31">
+        <v>0.02969151276782556</v>
+      </c>
+      <c r="F31">
+        <v>-0.008143270689452815</v>
+      </c>
+      <c r="G31">
+        <v>-0.02376360358499813</v>
+      </c>
+      <c r="H31">
+        <v>0.06430507432613906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03526031020347967</v>
+        <v>0.03773974833128697</v>
       </c>
       <c r="C32">
-        <v>0.0246628319535473</v>
+        <v>-0.0190994359872413</v>
       </c>
       <c r="D32">
-        <v>-0.02712852747427757</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01241483762394347</v>
+      </c>
+      <c r="E32">
+        <v>0.06559577152098169</v>
+      </c>
+      <c r="F32">
+        <v>0.02077635921251729</v>
+      </c>
+      <c r="G32">
+        <v>0.03182621233885603</v>
+      </c>
+      <c r="H32">
+        <v>0.06817971996781212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08246618932187963</v>
+        <v>0.0955208960948575</v>
       </c>
       <c r="C33">
-        <v>0.0443042663041442</v>
+        <v>-0.02706451536166129</v>
       </c>
       <c r="D33">
-        <v>-0.06527925579066349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04864496533522787</v>
+      </c>
+      <c r="E33">
+        <v>0.01585711089748937</v>
+      </c>
+      <c r="F33">
+        <v>-0.0003086713601650211</v>
+      </c>
+      <c r="G33">
+        <v>-0.008445180979445834</v>
+      </c>
+      <c r="H33">
+        <v>0.06797268979133829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05657880291367689</v>
+        <v>0.06237814967497755</v>
       </c>
       <c r="C34">
-        <v>0.02910282955992874</v>
+        <v>-0.01431578585146352</v>
       </c>
       <c r="D34">
-        <v>-0.053388851885704</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05352920466318239</v>
+      </c>
+      <c r="E34">
+        <v>0.01089703785307967</v>
+      </c>
+      <c r="F34">
+        <v>-0.01729536746783878</v>
+      </c>
+      <c r="G34">
+        <v>0.005161553722289464</v>
+      </c>
+      <c r="H34">
+        <v>0.05765090942987076</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03663191443966223</v>
+        <v>0.04027056907989131</v>
       </c>
       <c r="C35">
-        <v>0.009076158591733248</v>
+        <v>-0.004110859440384206</v>
       </c>
       <c r="D35">
-        <v>-0.007107463539277445</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.007954514038626175</v>
+      </c>
+      <c r="E35">
+        <v>0.01774077077046655</v>
+      </c>
+      <c r="F35">
+        <v>0.02075009527075199</v>
+      </c>
+      <c r="G35">
+        <v>-0.01193459424626927</v>
+      </c>
+      <c r="H35">
+        <v>0.02210347040202582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02056046388105438</v>
+        <v>0.02735475125887575</v>
       </c>
       <c r="C36">
-        <v>0.01746214796872826</v>
+        <v>-0.0138550125728352</v>
       </c>
       <c r="D36">
-        <v>-0.01599674023943709</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01244681216419679</v>
+      </c>
+      <c r="E36">
+        <v>0.04508172815037317</v>
+      </c>
+      <c r="F36">
+        <v>-0.0112731018433513</v>
+      </c>
+      <c r="G36">
+        <v>-0.008610324501778194</v>
+      </c>
+      <c r="H36">
+        <v>0.04412033175316419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03955880866616453</v>
+        <v>0.04421698560317956</v>
       </c>
       <c r="C38">
-        <v>0.003601169046312159</v>
+        <v>0.00144282461161846</v>
       </c>
       <c r="D38">
-        <v>-0.01746344688091066</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01666809404797264</v>
+      </c>
+      <c r="E38">
+        <v>0.05353513722555341</v>
+      </c>
+      <c r="F38">
+        <v>0.01840487223307846</v>
+      </c>
+      <c r="G38">
+        <v>0.01446311543937994</v>
+      </c>
+      <c r="H38">
+        <v>0.02643967387361974</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08997497873894998</v>
+        <v>0.1024007812379081</v>
       </c>
       <c r="C39">
-        <v>0.07256193444049294</v>
+        <v>-0.05151584329820275</v>
       </c>
       <c r="D39">
-        <v>-0.06603508674904279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06341853867701394</v>
+      </c>
+      <c r="E39">
+        <v>0.001115768475508486</v>
+      </c>
+      <c r="F39">
+        <v>-0.007146886299532574</v>
+      </c>
+      <c r="G39">
+        <v>0.03397615318151021</v>
+      </c>
+      <c r="H39">
+        <v>0.0531847722513816</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07458649315325717</v>
+        <v>0.072032035556513</v>
       </c>
       <c r="C40">
-        <v>0.04124184717491668</v>
+        <v>-0.02024147301691393</v>
       </c>
       <c r="D40">
-        <v>0.004925877132315217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.00986789268916537</v>
+      </c>
+      <c r="E40">
+        <v>0.01697249157269913</v>
+      </c>
+      <c r="F40">
+        <v>0.05513962896743971</v>
+      </c>
+      <c r="G40">
+        <v>0.03758665415473589</v>
+      </c>
+      <c r="H40">
+        <v>-0.1050613301518331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04061648096176851</v>
+        <v>0.04357379399869472</v>
       </c>
       <c r="C41">
-        <v>0.005671448698576096</v>
+        <v>0.001544407369933089</v>
       </c>
       <c r="D41">
-        <v>-0.03781806581471762</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03404280787064353</v>
+      </c>
+      <c r="E41">
+        <v>0.004225755587813254</v>
+      </c>
+      <c r="F41">
+        <v>0.01746034670971273</v>
+      </c>
+      <c r="G41">
+        <v>0.01020468086660713</v>
+      </c>
+      <c r="H41">
+        <v>0.03243240370412476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04721323331632708</v>
+        <v>0.05765372716200565</v>
       </c>
       <c r="C43">
-        <v>0.02629150839362773</v>
+        <v>-0.01788493006096766</v>
       </c>
       <c r="D43">
-        <v>-0.01811369393963616</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02501716031381536</v>
+      </c>
+      <c r="E43">
+        <v>0.0202603354557134</v>
+      </c>
+      <c r="F43">
+        <v>-0.009281988428256262</v>
+      </c>
+      <c r="G43">
+        <v>-0.01482675950250137</v>
+      </c>
+      <c r="H43">
+        <v>0.05479102691674909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09368631680395047</v>
+        <v>0.09467924677355803</v>
       </c>
       <c r="C44">
-        <v>0.09335825898451738</v>
+        <v>-0.06528618088023681</v>
       </c>
       <c r="D44">
-        <v>-0.08098268347887315</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06003919397912569</v>
+      </c>
+      <c r="E44">
+        <v>0.09560640312738113</v>
+      </c>
+      <c r="F44">
+        <v>-0.03539941592833442</v>
+      </c>
+      <c r="G44">
+        <v>0.03051942145730048</v>
+      </c>
+      <c r="H44">
+        <v>0.008439957084953129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02486685742998284</v>
+        <v>0.03333243740418032</v>
       </c>
       <c r="C46">
-        <v>0.01443759354532683</v>
+        <v>-0.0118554872915014</v>
       </c>
       <c r="D46">
-        <v>-0.01890265374251065</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03120958909866415</v>
+      </c>
+      <c r="E46">
+        <v>0.03027750990636746</v>
+      </c>
+      <c r="F46">
+        <v>-0.01292295661486691</v>
+      </c>
+      <c r="G46">
+        <v>0.001387617417267759</v>
+      </c>
+      <c r="H46">
+        <v>0.03793452169965396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03053019499528715</v>
+        <v>0.03812870982349539</v>
       </c>
       <c r="C47">
-        <v>0.02470335581799625</v>
+        <v>-0.01999824037849063</v>
       </c>
       <c r="D47">
-        <v>-0.01071428105615512</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.009147302450909148</v>
+      </c>
+      <c r="E47">
+        <v>0.05185922090000984</v>
+      </c>
+      <c r="F47">
+        <v>-0.006018412793466966</v>
+      </c>
+      <c r="G47">
+        <v>-0.0388291963671063</v>
+      </c>
+      <c r="H47">
+        <v>0.0264247558518827</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03186185562499502</v>
+        <v>0.03759085424373775</v>
       </c>
       <c r="C48">
-        <v>0.01780365813843543</v>
+        <v>-0.01171491477599499</v>
       </c>
       <c r="D48">
-        <v>-0.03043136271197375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01774561398270248</v>
+      </c>
+      <c r="E48">
+        <v>0.04339264434690805</v>
+      </c>
+      <c r="F48">
+        <v>0.000707584906807936</v>
+      </c>
+      <c r="G48">
+        <v>0.01150566273778905</v>
+      </c>
+      <c r="H48">
+        <v>0.04175710425773418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1630555821093983</v>
+        <v>0.1904249453173147</v>
       </c>
       <c r="C49">
-        <v>0.06373511031984749</v>
+        <v>-0.03600995853870863</v>
       </c>
       <c r="D49">
-        <v>0.02013173489406495</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03173966156640314</v>
+      </c>
+      <c r="E49">
+        <v>-0.1429885646581477</v>
+      </c>
+      <c r="F49">
+        <v>-0.07309123693826085</v>
+      </c>
+      <c r="G49">
+        <v>-0.0648972009638781</v>
+      </c>
+      <c r="H49">
+        <v>-0.2419258130070992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0393083600860667</v>
+        <v>0.04600871562930271</v>
       </c>
       <c r="C50">
-        <v>0.02653586964773534</v>
+        <v>-0.01899959361380202</v>
       </c>
       <c r="D50">
-        <v>-0.03407973434841301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02883912714154569</v>
+      </c>
+      <c r="E50">
+        <v>0.05274269545095784</v>
+      </c>
+      <c r="F50">
+        <v>-0.0082598085554535</v>
+      </c>
+      <c r="G50">
+        <v>-0.01934926954414485</v>
+      </c>
+      <c r="H50">
+        <v>0.0615004509290521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02531489452803903</v>
+        <v>0.02955838913462392</v>
       </c>
       <c r="C51">
-        <v>0.007629561576582745</v>
+        <v>-0.003178324047754544</v>
       </c>
       <c r="D51">
-        <v>-0.01453664814787081</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0130322458466428</v>
+      </c>
+      <c r="E51">
+        <v>0.01485613417409278</v>
+      </c>
+      <c r="F51">
+        <v>-0.02117436071440576</v>
+      </c>
+      <c r="G51">
+        <v>0.0009394216104488034</v>
+      </c>
+      <c r="H51">
+        <v>-0.00830108921383472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1523625906376327</v>
+        <v>0.1623674444344045</v>
       </c>
       <c r="C53">
-        <v>0.08129091682370108</v>
+        <v>-0.0533198964339718</v>
       </c>
       <c r="D53">
-        <v>-0.01865560394338573</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01823033592671059</v>
+      </c>
+      <c r="E53">
+        <v>-0.02542756959298453</v>
+      </c>
+      <c r="F53">
+        <v>-0.01993640323425653</v>
+      </c>
+      <c r="G53">
+        <v>-0.003776567111368034</v>
+      </c>
+      <c r="H53">
+        <v>0.1682806971743731</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05554544591576298</v>
+        <v>0.05804200498543011</v>
       </c>
       <c r="C54">
-        <v>0.02645654632710203</v>
+        <v>-0.01527534005044041</v>
       </c>
       <c r="D54">
-        <v>-0.02278067060243635</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01650732333856006</v>
+      </c>
+      <c r="E54">
+        <v>0.0514301346193378</v>
+      </c>
+      <c r="F54">
+        <v>-0.0006762891898224662</v>
+      </c>
+      <c r="G54">
+        <v>0.01097193937136197</v>
+      </c>
+      <c r="H54">
+        <v>0.04964096829162368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1001520859773782</v>
+        <v>0.1031917022670753</v>
       </c>
       <c r="C55">
-        <v>0.05618048685365803</v>
+        <v>-0.03484090957885877</v>
       </c>
       <c r="D55">
-        <v>-0.02211787923471567</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02413760706365066</v>
+      </c>
+      <c r="E55">
+        <v>0.02016772029458828</v>
+      </c>
+      <c r="F55">
+        <v>-0.01434256368893563</v>
+      </c>
+      <c r="G55">
+        <v>0.002901837508218941</v>
+      </c>
+      <c r="H55">
+        <v>0.1471008594288348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1473750309459798</v>
+        <v>0.1601200914118068</v>
       </c>
       <c r="C56">
-        <v>0.09271336318493661</v>
+        <v>-0.06429972087234358</v>
       </c>
       <c r="D56">
-        <v>-0.01788448986926762</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0197719327294169</v>
+      </c>
+      <c r="E56">
+        <v>-0.0220086804472329</v>
+      </c>
+      <c r="F56">
+        <v>-0.03842627320585276</v>
+      </c>
+      <c r="G56">
+        <v>-0.01257463645016701</v>
+      </c>
+      <c r="H56">
+        <v>0.1739757714226288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1259821297343242</v>
+        <v>0.09801058581614441</v>
       </c>
       <c r="C58">
-        <v>0.007965435982415081</v>
+        <v>0.03486390611945663</v>
       </c>
       <c r="D58">
-        <v>-0.03149728529007322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03724783346890555</v>
+      </c>
+      <c r="E58">
+        <v>0.1699627363672641</v>
+      </c>
+      <c r="F58">
+        <v>0.02067108127337672</v>
+      </c>
+      <c r="G58">
+        <v>-0.06287415074290453</v>
+      </c>
+      <c r="H58">
+        <v>-0.2299243681726749</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1168538329001947</v>
+        <v>0.1358814694039048</v>
       </c>
       <c r="C59">
-        <v>0.07817392314178227</v>
+        <v>-0.08341485028355818</v>
       </c>
       <c r="D59">
-        <v>0.3453892540095221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.364098688798863</v>
+      </c>
+      <c r="E59">
+        <v>0.02134871464598765</v>
+      </c>
+      <c r="F59">
+        <v>-0.01862340710308993</v>
+      </c>
+      <c r="G59">
+        <v>-0.03365420057618064</v>
+      </c>
+      <c r="H59">
+        <v>0.01048241733314337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2038417630418381</v>
+        <v>0.2322366107790183</v>
       </c>
       <c r="C60">
-        <v>0.1065404157862917</v>
+        <v>-0.06947276524026096</v>
       </c>
       <c r="D60">
-        <v>0.00064792487208142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0379334184182156</v>
+      </c>
+      <c r="E60">
+        <v>-0.09213023998942059</v>
+      </c>
+      <c r="F60">
+        <v>-0.07665198877992054</v>
+      </c>
+      <c r="G60">
+        <v>0.02138299311904261</v>
+      </c>
+      <c r="H60">
+        <v>-0.1671291145626146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07856205177893417</v>
+        <v>0.08817711774098941</v>
       </c>
       <c r="C61">
-        <v>0.05177827627319356</v>
+        <v>-0.03683532344551996</v>
       </c>
       <c r="D61">
-        <v>-0.05126484692418021</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04401529897598593</v>
+      </c>
+      <c r="E61">
+        <v>-0.001061569381086921</v>
+      </c>
+      <c r="F61">
+        <v>-0.004006721104459165</v>
+      </c>
+      <c r="G61">
+        <v>0.0001591639995436257</v>
+      </c>
+      <c r="H61">
+        <v>0.07085306477795388</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1288934271226547</v>
+        <v>0.1391803483347436</v>
       </c>
       <c r="C62">
-        <v>0.06780507610117979</v>
+        <v>-0.04235640152554819</v>
       </c>
       <c r="D62">
-        <v>-0.02138415168435006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.02977492484152382</v>
+      </c>
+      <c r="E62">
+        <v>-0.06016359462550155</v>
+      </c>
+      <c r="F62">
+        <v>-0.02084777044428488</v>
+      </c>
+      <c r="G62">
+        <v>0.02578012087627434</v>
+      </c>
+      <c r="H62">
+        <v>0.1867630741921502</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05094704101445482</v>
+        <v>0.05051212712054287</v>
       </c>
       <c r="C63">
-        <v>0.02584812839531064</v>
+        <v>-0.01389968675809098</v>
       </c>
       <c r="D63">
-        <v>-0.02264807622953931</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02042141212967355</v>
+      </c>
+      <c r="E63">
+        <v>0.05143657180166963</v>
+      </c>
+      <c r="F63">
+        <v>0.01600143190854731</v>
+      </c>
+      <c r="G63">
+        <v>0.02879790127458559</v>
+      </c>
+      <c r="H63">
+        <v>0.05909414404931369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1046909439418248</v>
+        <v>0.1087114968649177</v>
       </c>
       <c r="C64">
-        <v>0.02458371780540424</v>
+        <v>-0.004579074745446069</v>
       </c>
       <c r="D64">
-        <v>-0.06264644235927073</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04140230648616133</v>
+      </c>
+      <c r="E64">
+        <v>0.04688786855141819</v>
+      </c>
+      <c r="F64">
+        <v>-0.03972202339521901</v>
+      </c>
+      <c r="G64">
+        <v>0.05083532308910012</v>
+      </c>
+      <c r="H64">
+        <v>0.05516983524465607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1212352852626985</v>
+        <v>0.1270386853751171</v>
       </c>
       <c r="C65">
-        <v>0.0626930312262854</v>
+        <v>-0.0404724898278148</v>
       </c>
       <c r="D65">
-        <v>0.02440301204481029</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0006402455700680468</v>
+      </c>
+      <c r="E65">
+        <v>0.01201968400901813</v>
+      </c>
+      <c r="F65">
+        <v>-0.06180893781806482</v>
+      </c>
+      <c r="G65">
+        <v>0.05050613554864727</v>
+      </c>
+      <c r="H65">
+        <v>-0.1334510153801837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1411473318560724</v>
+        <v>0.1538430763286757</v>
       </c>
       <c r="C66">
-        <v>0.07793957593083502</v>
+        <v>-0.048014455832918</v>
       </c>
       <c r="D66">
-        <v>-0.1209977429566532</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1004304462460015</v>
+      </c>
+      <c r="E66">
+        <v>-0.02786036536730926</v>
+      </c>
+      <c r="F66">
+        <v>-0.01800007936415576</v>
+      </c>
+      <c r="G66">
+        <v>0.04424540312881686</v>
+      </c>
+      <c r="H66">
+        <v>0.1309397570585047</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07174984777989114</v>
+        <v>0.08347055147500955</v>
       </c>
       <c r="C67">
-        <v>0.01403652158445573</v>
+        <v>-0.004963755092657914</v>
       </c>
       <c r="D67">
-        <v>-0.0229464954499561</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03077009726091957</v>
+      </c>
+      <c r="E67">
+        <v>0.02497546575129698</v>
+      </c>
+      <c r="F67">
+        <v>-0.01290082818906539</v>
+      </c>
+      <c r="G67">
+        <v>-0.00496592422131142</v>
+      </c>
+      <c r="H67">
+        <v>0.02971868817150447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05837243333931858</v>
+        <v>0.05738385897076767</v>
       </c>
       <c r="C68">
-        <v>0.05134080920450484</v>
+        <v>-0.05659538480854754</v>
       </c>
       <c r="D68">
-        <v>0.2529153505716293</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2709495768686015</v>
+      </c>
+      <c r="E68">
+        <v>0.03534514299128063</v>
+      </c>
+      <c r="F68">
+        <v>-0.01591265940367419</v>
+      </c>
+      <c r="G68">
+        <v>-0.0165201310565835</v>
+      </c>
+      <c r="H68">
+        <v>0.007975680958191631</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05280292896691379</v>
+        <v>0.05326424847397469</v>
       </c>
       <c r="C69">
-        <v>0.01819801368151009</v>
+        <v>-0.005651466079372827</v>
       </c>
       <c r="D69">
-        <v>-0.01744026867642154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01548846976496696</v>
+      </c>
+      <c r="E69">
+        <v>0.02494262085479914</v>
+      </c>
+      <c r="F69">
+        <v>0.01014528390787125</v>
+      </c>
+      <c r="G69">
+        <v>-0.01473297617087547</v>
+      </c>
+      <c r="H69">
+        <v>0.05288859821435552</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005698220453698049</v>
+        <v>0.02630189479637305</v>
       </c>
       <c r="C70">
-        <v>-0.005182995333518698</v>
+        <v>-2.84585103326286e-05</v>
       </c>
       <c r="D70">
-        <v>-0.0003999940664030958</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.002085162198953909</v>
+      </c>
+      <c r="E70">
+        <v>-0.02366395464071397</v>
+      </c>
+      <c r="F70">
+        <v>-0.03056420465776163</v>
+      </c>
+      <c r="G70">
+        <v>-0.01623634490239364</v>
+      </c>
+      <c r="H70">
+        <v>-0.04431959273367838</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05759406310113926</v>
+        <v>0.05946975506612776</v>
       </c>
       <c r="C71">
-        <v>0.05092780609695161</v>
+        <v>-0.05996358523308064</v>
       </c>
       <c r="D71">
-        <v>0.2940686641349914</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2958106205588252</v>
+      </c>
+      <c r="E71">
+        <v>0.03226254894058792</v>
+      </c>
+      <c r="F71">
+        <v>-0.04172714557088991</v>
+      </c>
+      <c r="G71">
+        <v>-0.00695839298317459</v>
+      </c>
+      <c r="H71">
+        <v>0.01247617087254906</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1390911312458178</v>
+        <v>0.1476533303017238</v>
       </c>
       <c r="C72">
-        <v>0.06601922980136403</v>
+        <v>-0.03820267694011709</v>
       </c>
       <c r="D72">
-        <v>0.001233887549524773</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01247700390917503</v>
+      </c>
+      <c r="E72">
+        <v>-0.1227531593852044</v>
+      </c>
+      <c r="F72">
+        <v>0.150562682553596</v>
+      </c>
+      <c r="G72">
+        <v>0.1138622613609355</v>
+      </c>
+      <c r="H72">
+        <v>0.02340448056657588</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2739346104659132</v>
+        <v>0.2882450496794921</v>
       </c>
       <c r="C73">
-        <v>0.1133007361276593</v>
+        <v>-0.04745038256396494</v>
       </c>
       <c r="D73">
-        <v>-0.03966568883316678</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09650953686023483</v>
+      </c>
+      <c r="E73">
+        <v>-0.2101850723591892</v>
+      </c>
+      <c r="F73">
+        <v>-0.1235750183875797</v>
+      </c>
+      <c r="G73">
+        <v>-0.1903716102969165</v>
+      </c>
+      <c r="H73">
+        <v>-0.471646148348502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07961418110442268</v>
+        <v>0.09214403826228088</v>
       </c>
       <c r="C74">
-        <v>0.07803053005835135</v>
+        <v>-0.05968826426717736</v>
       </c>
       <c r="D74">
-        <v>-0.01686655226316471</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03200067884289264</v>
+      </c>
+      <c r="E74">
+        <v>-0.004515523340792136</v>
+      </c>
+      <c r="F74">
+        <v>0.007858791517046479</v>
+      </c>
+      <c r="G74">
+        <v>-0.04261651723044597</v>
+      </c>
+      <c r="H74">
+        <v>0.1194997204719252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09390223854469186</v>
+        <v>0.09979792495857526</v>
       </c>
       <c r="C75">
-        <v>0.05526162939750747</v>
+        <v>-0.02994901556463226</v>
       </c>
       <c r="D75">
-        <v>-0.007426242847561724</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01475780773357607</v>
+      </c>
+      <c r="E75">
+        <v>0.01051544138376624</v>
+      </c>
+      <c r="F75">
+        <v>-0.02704808724682509</v>
+      </c>
+      <c r="G75">
+        <v>-0.01324681023659872</v>
+      </c>
+      <c r="H75">
+        <v>0.116795973720793</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1297217730831989</v>
+        <v>0.1395821789209518</v>
       </c>
       <c r="C76">
-        <v>0.08443418391194185</v>
+        <v>-0.05689172249126656</v>
       </c>
       <c r="D76">
-        <v>-0.05082839729046282</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05168054030343047</v>
+      </c>
+      <c r="E76">
+        <v>0.03399099082748058</v>
+      </c>
+      <c r="F76">
+        <v>-0.04368076547944331</v>
+      </c>
+      <c r="G76">
+        <v>0.004785300862009872</v>
+      </c>
+      <c r="H76">
+        <v>0.1832490648318429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1148268830102989</v>
+        <v>0.1110168167684483</v>
       </c>
       <c r="C77">
-        <v>0.02200805014069075</v>
+        <v>0.003584257819513425</v>
       </c>
       <c r="D77">
-        <v>-0.05001625908146953</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01893552726836128</v>
+      </c>
+      <c r="E77">
+        <v>0.02669672412963547</v>
+      </c>
+      <c r="F77">
+        <v>-0.1346582029196422</v>
+      </c>
+      <c r="G77">
+        <v>0.8854687451619836</v>
+      </c>
+      <c r="H77">
+        <v>-0.1733145874305316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0990999771133579</v>
+        <v>0.1387896127611918</v>
       </c>
       <c r="C78">
-        <v>0.04039706603327584</v>
+        <v>-0.03350049924506691</v>
       </c>
       <c r="D78">
-        <v>-0.08366370422062731</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08489824838525271</v>
+      </c>
+      <c r="E78">
+        <v>0.05990788637501106</v>
+      </c>
+      <c r="F78">
+        <v>-0.03521017841943283</v>
+      </c>
+      <c r="G78">
+        <v>0.07430354369596387</v>
+      </c>
+      <c r="H78">
+        <v>-0.05568379699374289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1466769278641952</v>
+        <v>0.1518890190755331</v>
       </c>
       <c r="C79">
-        <v>0.07980298093399016</v>
+        <v>-0.04536378274657829</v>
       </c>
       <c r="D79">
-        <v>-0.02557228946318572</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02799332411112561</v>
+      </c>
+      <c r="E79">
+        <v>-0.01222384531237647</v>
+      </c>
+      <c r="F79">
+        <v>-0.01859578908034279</v>
+      </c>
+      <c r="G79">
+        <v>-0.02041627401372851</v>
+      </c>
+      <c r="H79">
+        <v>0.1811620349701032</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04555377737409662</v>
+        <v>0.04300747155817163</v>
       </c>
       <c r="C80">
-        <v>0.01515223373343797</v>
+        <v>-0.005142331157613866</v>
       </c>
       <c r="D80">
-        <v>-0.02860934217681995</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0189923675531201</v>
+      </c>
+      <c r="E80">
+        <v>-0.006325506192693062</v>
+      </c>
+      <c r="F80">
+        <v>0.005325372560011116</v>
+      </c>
+      <c r="G80">
+        <v>-0.03488945777743912</v>
+      </c>
+      <c r="H80">
+        <v>0.03898554805195648</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1145349227593647</v>
+        <v>0.1199845430708571</v>
       </c>
       <c r="C81">
-        <v>0.06513689410815635</v>
+        <v>-0.03798355486287631</v>
       </c>
       <c r="D81">
-        <v>-0.02726517370066498</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02326299501258001</v>
+      </c>
+      <c r="E81">
+        <v>0.02840951213540216</v>
+      </c>
+      <c r="F81">
+        <v>-0.01263515692877735</v>
+      </c>
+      <c r="G81">
+        <v>-0.04614619652780787</v>
+      </c>
+      <c r="H81">
+        <v>0.1504802558041532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1300078106194955</v>
+        <v>0.1312212058414123</v>
       </c>
       <c r="C82">
-        <v>0.08079064066382531</v>
+        <v>-0.05158937211364284</v>
       </c>
       <c r="D82">
-        <v>-0.01693925484675922</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.02816266737834396</v>
+      </c>
+      <c r="E82">
+        <v>-0.00826330677110217</v>
+      </c>
+      <c r="F82">
+        <v>-0.05708976765579066</v>
+      </c>
+      <c r="G82">
+        <v>-0.03118829804744769</v>
+      </c>
+      <c r="H82">
+        <v>0.2051559398555907</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07930992178166725</v>
+        <v>0.08818040063005762</v>
       </c>
       <c r="C83">
-        <v>-0.005430383743094813</v>
+        <v>0.02147399853575902</v>
       </c>
       <c r="D83">
-        <v>-0.02499534178578778</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03390896696758254</v>
+      </c>
+      <c r="E83">
+        <v>0.0279396134723082</v>
+      </c>
+      <c r="F83">
+        <v>-0.05573652465821879</v>
+      </c>
+      <c r="G83">
+        <v>-0.08044453046553081</v>
+      </c>
+      <c r="H83">
+        <v>-0.0608715195331708</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02737864715839524</v>
+        <v>0.03691936150177751</v>
       </c>
       <c r="C84">
-        <v>0.02554694973123899</v>
+        <v>-0.02071352778170506</v>
       </c>
       <c r="D84">
-        <v>-0.03417870489374877</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02930817194483358</v>
+      </c>
+      <c r="E84">
+        <v>0.01844818710760238</v>
+      </c>
+      <c r="F84">
+        <v>0.0571863578029249</v>
+      </c>
+      <c r="G84">
+        <v>-0.06175548907741917</v>
+      </c>
+      <c r="H84">
+        <v>0.005493732836109294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1193879415768062</v>
+        <v>0.1198473619228557</v>
       </c>
       <c r="C85">
-        <v>0.06052462636885749</v>
+        <v>-0.03046342191052478</v>
       </c>
       <c r="D85">
-        <v>-0.01980643766772962</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02491134687625781</v>
+      </c>
+      <c r="E85">
+        <v>0.0245048116099163</v>
+      </c>
+      <c r="F85">
+        <v>-0.03936410803861683</v>
+      </c>
+      <c r="G85">
+        <v>-0.01322159279468799</v>
+      </c>
+      <c r="H85">
+        <v>0.1551406933616855</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04968399461116893</v>
+        <v>0.05796981042626118</v>
       </c>
       <c r="C86">
-        <v>0.03050283999667659</v>
+        <v>-0.02032817616089501</v>
       </c>
       <c r="D86">
-        <v>-0.02232090012220699</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02434536804913465</v>
+      </c>
+      <c r="E86">
+        <v>0.0639550274878023</v>
+      </c>
+      <c r="F86">
+        <v>-0.02238903093817837</v>
+      </c>
+      <c r="G86">
+        <v>-0.01879566604025742</v>
+      </c>
+      <c r="H86">
+        <v>-0.002625502252733383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1215241099910944</v>
+        <v>0.1227189485124923</v>
       </c>
       <c r="C87">
-        <v>0.07177496081782601</v>
+        <v>-0.0376323191473852</v>
       </c>
       <c r="D87">
-        <v>-0.079462082611197</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07351551791257303</v>
+      </c>
+      <c r="E87">
+        <v>0.02105944299125949</v>
+      </c>
+      <c r="F87">
+        <v>0.005504106865278023</v>
+      </c>
+      <c r="G87">
+        <v>0.1092555828916351</v>
+      </c>
+      <c r="H87">
+        <v>-0.04256203987682703</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05303746696780869</v>
+        <v>0.06030031848502182</v>
       </c>
       <c r="C88">
-        <v>0.02951402779439519</v>
+        <v>-0.01904787884875967</v>
       </c>
       <c r="D88">
-        <v>-0.01835502011204893</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03044708051734297</v>
+      </c>
+      <c r="E88">
+        <v>0.02057197008739571</v>
+      </c>
+      <c r="F88">
+        <v>-0.005209730482884808</v>
+      </c>
+      <c r="G88">
+        <v>0.008441989858752235</v>
+      </c>
+      <c r="H88">
+        <v>0.05294835324341152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08054660805308687</v>
+        <v>0.09112932859214005</v>
       </c>
       <c r="C89">
-        <v>0.06796629474734701</v>
+        <v>-0.0773961698104474</v>
       </c>
       <c r="D89">
-        <v>0.3248501678860059</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.345824559133864</v>
+      </c>
+      <c r="E89">
+        <v>0.07203183203815565</v>
+      </c>
+      <c r="F89">
+        <v>-0.08039238466542083</v>
+      </c>
+      <c r="G89">
+        <v>-0.01892619377706102</v>
+      </c>
+      <c r="H89">
+        <v>0.005346281088017986</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07276251320200604</v>
+        <v>0.07820847600593098</v>
       </c>
       <c r="C90">
-        <v>0.06111999160675662</v>
+        <v>-0.06772580668799455</v>
       </c>
       <c r="D90">
-        <v>0.326732391631136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3115633614834769</v>
+      </c>
+      <c r="E90">
+        <v>0.05867672439914307</v>
+      </c>
+      <c r="F90">
+        <v>-0.00166616640227735</v>
+      </c>
+      <c r="G90">
+        <v>-0.005025981591235906</v>
+      </c>
+      <c r="H90">
+        <v>0.005829441866396838</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08478402623032517</v>
+        <v>0.08928896542217245</v>
       </c>
       <c r="C91">
-        <v>0.0552438025199985</v>
+        <v>-0.03350301807643837</v>
       </c>
       <c r="D91">
-        <v>-0.03251164725047453</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03033368079083079</v>
+      </c>
+      <c r="E91">
+        <v>0.01719230003028457</v>
+      </c>
+      <c r="F91">
+        <v>-0.003615437052440058</v>
+      </c>
+      <c r="G91">
+        <v>-0.05051174888682958</v>
+      </c>
+      <c r="H91">
+        <v>0.08184175654169332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07376707402952566</v>
+        <v>0.07861775625081087</v>
       </c>
       <c r="C92">
-        <v>0.07223237344747682</v>
+        <v>-0.07914983375864267</v>
       </c>
       <c r="D92">
-        <v>0.3441807080002805</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3449789582200757</v>
+      </c>
+      <c r="E92">
+        <v>0.0452681706348235</v>
+      </c>
+      <c r="F92">
+        <v>-0.04060476487441139</v>
+      </c>
+      <c r="G92">
+        <v>0.007899372493314186</v>
+      </c>
+      <c r="H92">
+        <v>0.02341503008317882</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06508816029569973</v>
+        <v>0.07599950114650597</v>
       </c>
       <c r="C93">
-        <v>0.06454967435244965</v>
+        <v>-0.07735999902004433</v>
       </c>
       <c r="D93">
-        <v>0.3198337363310017</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.3076746883054007</v>
+      </c>
+      <c r="E93">
+        <v>0.03677286810296119</v>
+      </c>
+      <c r="F93">
+        <v>-0.03869287765751367</v>
+      </c>
+      <c r="G93">
+        <v>0.009989268021625157</v>
+      </c>
+      <c r="H93">
+        <v>-0.008821586476722744</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1322206089415263</v>
+        <v>0.1266399329419826</v>
       </c>
       <c r="C94">
-        <v>0.05819021668097446</v>
+        <v>-0.02283692251866431</v>
       </c>
       <c r="D94">
-        <v>-0.04017071488492273</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04772572753052828</v>
+      </c>
+      <c r="E94">
+        <v>-0.0008952515251945101</v>
+      </c>
+      <c r="F94">
+        <v>-0.02021106574961767</v>
+      </c>
+      <c r="G94">
+        <v>-0.05220627611366279</v>
+      </c>
+      <c r="H94">
+        <v>0.1018011541411736</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1195363526339926</v>
+        <v>0.1290148911531595</v>
       </c>
       <c r="C95">
-        <v>0.0341905864843773</v>
+        <v>-0.007567590901521099</v>
       </c>
       <c r="D95">
-        <v>-0.05386623747094406</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.0621799118975304</v>
+      </c>
+      <c r="E95">
+        <v>0.01268732893317008</v>
+      </c>
+      <c r="F95">
+        <v>-0.04496858973551473</v>
+      </c>
+      <c r="G95">
+        <v>-0.008397987975952701</v>
+      </c>
+      <c r="H95">
+        <v>-0.03249123978060552</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2053852080014379</v>
+        <v>0.2093034437957718</v>
       </c>
       <c r="C97">
-        <v>0.04379341861739042</v>
+        <v>-0.002311208901420077</v>
       </c>
       <c r="D97">
-        <v>0.07284850222313494</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.09215683623151955</v>
+      </c>
+      <c r="E97">
+        <v>-0.3403801267624326</v>
+      </c>
+      <c r="F97">
+        <v>0.854837878872686</v>
+      </c>
+      <c r="G97">
+        <v>0.09533951232133407</v>
+      </c>
+      <c r="H97">
+        <v>0.003872731202892429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2442284807864195</v>
+        <v>0.274906850225738</v>
       </c>
       <c r="C98">
-        <v>0.07651660944399861</v>
+        <v>-0.03399572166480387</v>
       </c>
       <c r="D98">
-        <v>-0.04989319197373659</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05957366836128558</v>
+      </c>
+      <c r="E98">
+        <v>-0.1646549229858738</v>
+      </c>
+      <c r="F98">
+        <v>-0.08715685225021667</v>
+      </c>
+      <c r="G98">
+        <v>-0.2608097186160362</v>
+      </c>
+      <c r="H98">
+        <v>-0.2254812903706259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4568155867303738</v>
+        <v>0.2858175278342982</v>
       </c>
       <c r="C99">
-        <v>-0.8735523863937622</v>
+        <v>0.9351629763093965</v>
       </c>
       <c r="D99">
-        <v>0.05418708395747936</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.1261485304130051</v>
+      </c>
+      <c r="E99">
+        <v>0.06761034463301439</v>
+      </c>
+      <c r="F99">
+        <v>-0.04431407862341789</v>
+      </c>
+      <c r="G99">
+        <v>-0.01331622905631041</v>
+      </c>
+      <c r="H99">
+        <v>0.06699334127659855</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04010957498933349</v>
+        <v>0.04793174804802506</v>
       </c>
       <c r="C101">
-        <v>0.03088037559772097</v>
+        <v>-0.02558465676884523</v>
       </c>
       <c r="D101">
-        <v>0.000175567379445007</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.005963870207681619</v>
+      </c>
+      <c r="E101">
+        <v>0.05634247291193914</v>
+      </c>
+      <c r="F101">
+        <v>0.003972305541359237</v>
+      </c>
+      <c r="G101">
+        <v>-0.004884759310104608</v>
+      </c>
+      <c r="H101">
+        <v>0.07889664365880554</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
